--- a/design.xlsx
+++ b/design.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">回测!$B$1:$B$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'回测 (复权数据)'!$B$1:$B$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'回测 (复权数据)'!$B$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="140">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,15 +545,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SYSTEM_INITILIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>analyser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SYSTEM_INITILIZE</t>
+    <t>system_initilize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_BEFORE_TRADING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bar之后的策略行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>analyser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_post_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录Bar之后的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -948,15 +992,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -966,6 +1016,9 @@
       </c>
       <c r="D3" t="s">
         <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -978,241 +1031,313 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
       <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" t="s">
         <v>97</v>
       </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B29"/>
+  <autoFilter ref="B1:B24"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
